--- a/ArchivosExcel/MercadoLibre-Laptops.xlsx
+++ b/ArchivosExcel/MercadoLibre-Laptops.xlsx
@@ -463,23 +463,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air (13 pulgadas, 2020, Chip M1, 256 GB de SSD, 8 GB de RAM) - Gris espacial - Distribuidor Autorizado</t>
+          <t>Ultrabook Bigview Xbook Plateado 14.1" Intel Celeron J4125 8GB de RAM 512GB SSD Intel UHD Graphics 600 60 Hz 1920x1080px Windows 11 Pro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>$
-25,999</t>
+4,072
+,
+45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13,454</t>
+          <t>3,589</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,23 +493,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HP Laptop 14-ew1000la Intel Core Ultra 5 16GB RAM 512GB SSD</t>
+          <t>Lenovo V15 G4 15.6" Full HD 1080p Windows 11 Laptop AMD Ryzen 3 7320U with AMD Radeon Graphics 8GB DDR5 RAM 512GB SSD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>$
-22,999</t>
+7,265
+,
+87</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21,033</t>
+          <t>6,689</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,25 +523,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Asusi7-1255u 512gb 16gb 16 Fhd Win11 Black F1605za-ws74 Color Negro</t>
+          <t>Laptop Lenovo Ideapad Celeron 4gb + 128ssd + Office Regalo Color Gris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>$
-15,456
-,
-08</t>
+4,999</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10,819</t>
+          <t>3,749</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,25 +551,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Notebook Hp 14-fq1025nr Gris 14 , Amd Ryzen 5 5500u 8gb De Ram 256gb Ssd, Amd Radeon Rx Vega 7 1920x1080px Windows 11 Home</t>
+          <t>Ultrabook CoreBook 15.6" gris 16GB de Ram - 512GB SSD - Intel Core i5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>$
-19,300
+11,610
 ,
-78</t>
+66</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12,159</t>
+          <t>7,663</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -579,25 +581,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Laptop 2 en 1 Intel Celeron DDR4 16GB RAM 512GB SSD 15.6'' 4K FHD IPS Windows 11 Pro Ultrabook 2.4G/5G Dual Wifi</t>
+          <t>Ordenador Portátil Hp/amd Ryzen 3, 256 Gb, Ssd, 8 Gb, 14 Tác Color Negro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>$
-9,080
+19,364
 ,
-45</t>
+02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5,811</t>
+          <t>6,667</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -637,23 +639,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Laptop Lenovo Ideapad Celeron 4gb + 128ssd + Office Regalo Color Gris</t>
+          <t>Laptop Dell Inspiron 3520 Core I3 1215u Ram 8gb Ssd 512gb Color Plateado</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>$
-4,999</t>
+7,899</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3,749</t>
+          <t>6,699</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -665,23 +667,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Notebook 245 G9 14in negro 16GB de Ram - 512GB SSD - AMD Ryzen 3</t>
+          <t>Laptop Chuwi HeroBook Pro space gray 14.1", Intel Celeron N4020 8GB de RAM 256GB SSD, Intel UHD Graphics 600 1920x1080px Windows 11 Home</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>$
-8,499</t>
+8,896
+,
+98</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,999</t>
+          <t>4,270</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -693,22 +697,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14.1'' Laptop 8 Ram+512gb Ssd Intel Celeron N4000 Windows 11</t>
+          <t>Laptops Moderness 15.6 8g Ram+256g Ssd Windows 11 Color Girs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+9,999</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3,599</t>
+          <t>4,599</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -720,22 +725,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Laptop 2 En 1 Celeron 8gb Ram 256gb Ssd Notebook 14in</t>
+          <t>Lenovo Laptop Thinkpad L570 I7-7ma Gen, 8gb Ram Y 240gb Ssd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+7,000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,076</t>
+          <t>5,460</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -747,23 +753,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Laptop Hp 240 G9 Intel Core I3 1215u 512gb Ssd 16gb Ram 1366x768px Windows 11 Home + Antivirus Norton 360</t>
+          <t>Laptop Hp 14-dq0518la Celeron N4120 Ram 4gb Ssd 128gb W11h Color Plateado</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>$
-10,499</t>
+5,999</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6,149</t>
+          <t>4,319</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -775,22 +781,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Apple MacBook Air (13 pulgadas, 2020, Chip M1, 256 GB de SSD, 8 GB de RAM) - Gris espacial</t>
+          <t>Portátil Ultrabook L16AIR 16" plateado 16GB de Ram 512GB SSD AMD Ryzen 7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+23,240
+,
+70</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,699</t>
+          <t>13,936</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -802,23 +811,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Laptop Dell Inspiron 3520 Core I3 1215u Ram 8gb Ssd 512gb Color Plateado</t>
+          <t>Laptop Intel Celeron 2 en 1 Notebook DDR4 16 GB RAM 512 GB SSD 15.6' Plateado 1920 px x 1080 px Windows 11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>$
-7,899</t>
+8,952</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,699</t>
+          <t>5,371</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,25 +839,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Laptop Chuwi HeroBook Pro space gray 14.1", Intel Celeron N4020 8GB de RAM 256GB SSD, Intel UHD Graphics 600 1920x1080px Windows 11 Home</t>
+          <t>Notebook D-1420 14.1" gris 8GB de Ram - 256GB SSD - Intel Celeron Win11 pro</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>$
-8,867
+9,691
 ,
-93</t>
+70</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,256</t>
+          <t>4,458</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -860,23 +869,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Laptop Hp 14-dq0518la Celeron N4120 Ram 4gb Ssd 128gb W11h Color Plateado</t>
+          <t>Laptop Huawei Matebook D16 I5 12a 8gb 512gb Ssd Windows 11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>$
-5,999</t>
+16,999</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,319</t>
+          <t>10,499</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -888,25 +897,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portátil Ultrabook L16AIR 16" plateado 16GB de Ram 512GB SSD AMD Ryzen 7</t>
+          <t>Laptop Lenovo Ideapad 3 15.6'' Ryzen 7 16gb Ram 512gb Ssd Color Sand</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>$
-23,164
-,
-80</t>
+15,999</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13,891</t>
+          <t>11,299</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -918,23 +925,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Notebook Inspiron 3520 15.6" plateado 16GB de Ram - 512GB SSD - Intel Core i5</t>
+          <t>Laptop Hp 245 G9 Amd Ryzen 3 3250u 8gb Ssd 256gb 14 Hd W11h Color Negro</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$
-13,599</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9,949</t>
+          <t>5,280</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -946,25 +952,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Laptop MSI Gamer Thin GF63 15.6" 16GB de Ram 512GB SSD Intel Core i5 11400H Black</t>
+          <t>Laptop Acer Aspire 3 15.6 Ryzen 7, 16gb/512gb, Windows 11 Color Plateado</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$
-18,686
-,
-30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14,949</t>
+          <t>8,374</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -976,23 +979,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Laptop Intel Celeron 2 en 1 Notebook DDR4 16 GB RAM 512 GB SSD 15.6' Plateado 1920 px x 1080 px Windows 11</t>
+          <t>Laptop Dell Inspiron 15 Ryzen 5 8gb Ddr5 512gb Ssd + Mouse</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>$
-8,952</t>
+10,499</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5,371</t>
+          <t>8,329</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1004,318 +1007,10 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Notebook D-1420 14.1" gris 8GB de Ram - 256GB SSD - Intel Celeron Win11 pro</t>
+          <t>Laptop Lenovo Ideapad Touch 15.6 Ryzen 3 7320u 8gb 256gb ssd</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>$
-9,660
-,
-05</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4,443</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Laptop Hp 240 G9, Intel Core I5-1235u 12va Gen, 16gb Ram Ddr4 3200 Mhz, Disco Duro 512gb Ssd, Gráficos Intel Iris Xe, Windows 11 Home 64-bit, 14 Pulgadas Hd, Teclado En Español, Negro</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>8,999</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Laptop Lenovo Ideapad Slim 3 15.6'' Ci5 8gb + 512gb Ssd</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>$
-14,999</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>8,799</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Laptop Asus Vivobook Go 15 E1504 Intel Ci3 8gb 512gb Ssd Color Plata</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>$
-9,499</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>6,159</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Laptop Hp 255 G8 Amd Ryzen 5-5500u 8gb 256gb Ssd W11h Color Negro</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>$
-8,999</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>6,782</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Laptop Huawei Matebook D16 I5 12a 8gb 512gb Ssd Windows 11</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>$
-16,999</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>10,499</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Laptop Hp 245 G9 Amd Ryzen 3 3250u 8gb Ssd 256gb 14 Hd W11h Color Negro</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5,280</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Laptop Lenovo Ideapad 3 15.6'' Ryzen 7 16gb Ram 512gb Ssd Color Sand</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>$
-15,999</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>11,299</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Laptop Lenovo Ideapad Slim 3 15iru8 Intel Core I7 1355u Ram 16gb 1tb Ssd 15.6 Touch Windows 11 Home Teclado En Español</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>$
-17,390</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>15,651</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Laptop Dell Inspiron 15 Ryzen 5 8gb Ddr5 512gb Ssd + Mouse</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>$
-10,499</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>8,329</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Notebook 240 G9 14" plateado 8GB de Ram - 256GB SSD - Intel Celeron</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>$
-7,399</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>5,105</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>MercadoLibre-Laptops</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Laptop Lenovo Ideapad Touch 15.6 Ryzen 3 7320u 8gb 256gb ssd</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
         <is>
           <t>$
 9,615
@@ -1323,14 +1018,322 @@
 20</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6,799</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Laptop Lenovo Ideapad 3 Intel Ci3 8gb 256ssd Windows 11 Color Frost blue</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>$
+13,999</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6,799</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Laptop Lenovo 15.6 Core I5-12450h 16gb Ram 512gb Ssd Color Gris</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9,999</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Laptop Hp 14'' Intel N4120 ( 64 Emmc + 4gb Ram ) Windows 11 Home - Color Rosa</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>$
+5,815
+,
+02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4,361</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Laptop Dell 3525, 15.6 Fhd , Ryzen 7, 16gb, 1tb Ssd, W11h Color Black</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$
+17,999</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12,599</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Laptop Hp 240 G9 Intel Core I3-1215u 12va Generación, 16gb Ram, 256gb Ssd, Windows 11 Home. Teclado En Español 14 Pulgadas Hd.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5,999</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Laptop gamer Thunderobot R16 Gris Oscuro 16" Intel Core i7 14650HX 16GB de RAM 1TB SSD Nvidia GeForce RTX 4060 240 Hz 2560x1600px RGB Teclado español Windows 11 Pro</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>$
+38,747
+,
+42</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>25,760</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Notebook Gateway 14.1' Fhd Core I3 128gb Ssd 4gb Ram W10 Amv Color Azul</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>$
+8,999</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3,999</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Laptop Huawei Matebook D 14 Ci3 12a 8 Gb 256 Gb Win11 Gris</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>$
+13,999</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8,999</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Laptop Hp 14-dq5024la Intel Core I3 8gb Ram 512 Gb Ssd</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>$
+10,299</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6,299</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Laptop Dell Inspiron 3525 Ryzen 5 8gb 512ssd Win11 Plata</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7,940</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MercadoLibre-Laptops</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air (13 pulgadas, 2020, Chip M1, 256 GB de SSD, 8 GB de RAM) - Plata</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6,799</t>
+          <t>14,999</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1342,25 +1345,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Notebook Envy x360 15-fe0053dx 15.6" táctil plateado 16GB de Ram - 512GB SSD - Intel Core i7</t>
+          <t>Laptop Lenovo Gamer Ryzen 5 8gb 512gb Win11 Rtx2050 Diginet Color Gris</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$
-23,184
-,
-12</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18,547</t>
+          <t>12,519</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1372,22 +1372,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Laptop Acer Aspire 3 15.6 Ryzen 7, 16gb/512gb, Windows 11 Color Plateado</t>
+          <t>Notebook Envy x360 15-fe0053dx 15.6" táctil plateado 16GB de Ram - 512GB SSD - Intel Core i7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+23,260
+,
+08</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8,374</t>
+          <t>18,608</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1399,22 +1402,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Notebook Inspiron 3520 15.6" plata 16GB de Ram - 512GB SSD - Intel Core i7</t>
+          <t>Laptop Hp: Intel Core I5, Ram 12gb, Ssd 512gb, 17.3 , W11h</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+19,364
+,
+02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14,290</t>
+          <t>11,126</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1426,23 +1432,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Laptop Dell 3525, 15.6 Fhd , Ryzen 7, 16gb, 1tb Ssd, W11h Color Black</t>
+          <t>Laptop Hp 14 Dq0509la Celeron N4120 Ram 4gb Ssd 128gb</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>$
-17,999</t>
+6,999</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12,599</t>
+          <t>4,189</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1454,22 +1460,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Laptop Dell Inspiron 3525 Ryzen 5 8gb 512ssd Win11 Plata</t>
+          <t>Notebook Laptop CP35 17.3" táctil plateado 8GB de Ram - 512GB SSD - AMD Ryzen 3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+19,364
+,
+02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7,940</t>
+          <t>10,843</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1481,22 +1490,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Laptop Dell: Amd Ryzen 7, 16gb, Ssd 1tb, 15.6 , W11h Color Plateado</t>
+          <t>Laptop Dell Inspiron 3520 15.6 Intel Core I7-1255u 16gb</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+14,999</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11,499</t>
+          <t>13,999</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1508,23 +1518,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Notebook Gateway 14.1' Fhd Core I3 128gb Ssd 4gb Ram W10 Amv Color Azul</t>
+          <t>Laptop Thin &amp; Light Msi Modern 14 C12m 14 Ci3 8gb 256gb Ssd</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>$
-8,999</t>
+14,999</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3,999</t>
+          <t>6,999</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1536,23 +1546,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Laptop Lenovo Ideapad 3 Intel Ci3 8gb 256ssd Windows 11 Color Frost blue</t>
+          <t>Asusi7-1255u 512gb 16gb 16 Fhd Win11 Black F1605za-ws74 Color Negro</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>$
-13,999</t>
+15,799</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6,799</t>
+          <t>11,219</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1564,7 +1574,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Laptop Hp 240 G9 Intel Core I3-1215u 12va Generación, 16gb Ram, 256gb Ssd, Windows 11 Home. Teclado En Español 14 Pulgadas Hd.</t>
+          <t>Laptop Hp 240 G9: Intel Core I5-1235u (12 Va Gen), 8gb Ram, Ssd De 512gb, Pantalla De 14 Led, Video Iris Xe Graphics, W11h, Teclado En Español.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1574,12 +1584,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5,999</t>
+          <t>7,799</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1591,25 +1601,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Laptop gamer Thunderobot R16 Gris Oscuro 16" Intel Core i7 14650HX 16GB de RAM 1TB SSD Nvidia GeForce RTX 4060 240 Hz 2560x1600px RGB Teclado español Windows 11 Pro</t>
+          <t>Laptop Lenovo Yoga Slim 7 83CV000KLM Intel Ultra 5 125H 16gb 1tb SSD Luna Grey</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>$
-38,620
-,
-88</t>
+24,999</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>27,034</t>
+          <t>16,249</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1621,23 +1629,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Laptop Huawei Matebook D 14 Ci3 12a 8 Gb 256 Gb Win11 Gris</t>
+          <t>Notebook IdeaPad IdeaPad 1 plata 4GB de Ram - 64GB SSD - Intel Celeron</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$
-13,999</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8,999</t>
+          <t>3,509</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1649,7 +1656,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Laptop Lenovo 15.6 Core I5-12450h 16gb Ram 512gb Ssd Color Gris</t>
+          <t>Laptop 14, Intel Celeron J4105 8gb Ram 128gb Ssd, 1920*1080</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1659,12 +1666,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9,999</t>
+          <t>3,392</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1676,18 +1683,18 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Laptop Hp 14-dq5024la Intel Core I3 8gb Ram 512 Gb Ssd</t>
+          <t>Laptop Dell Inspiron 3520 15.6 Ci5 16gb Ram 512gb Ssd Color Plateado</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>$
-10,299</t>
+12,049</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>6,299</t>
+          <t>10,999</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1704,7 +1711,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Laptop Lenovo Gamer Ryzen 5 8gb 512gb Win11 Rtx2050 Diginet Color Gris</t>
+          <t>Notebook Laptop Geobook 2E 12.5" negro 4GB de Ram - 64GB SSD - Intel Celeron</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1714,12 +1721,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12,519</t>
+          <t>2,699</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1731,25 +1738,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Laptop Hp: Intel Core I5, Ram 12gb, Ssd 512gb, 17.3 , W11h</t>
+          <t>Apple MacBook Air (13 pulgadas, 2020, Chip M1, 256 GB de SSD, 8 GB de RAM) - Gris espacial</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$
-19,300
-,
-78</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11,089</t>
+          <t>12,699</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1761,23 +1765,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Laptop Hp 14 Dq0509la Celeron N4120 Ram 4gb Ssd 128gb</t>
+          <t>Laptop Lenovo Ideapad 1 Ryzen 3 7320u 8gb 256gb Ssd M.2 15.6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$
-6,999</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4,189</t>
+          <t>6,775</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1789,7 +1792,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Apple MacBook Air (13 pulgadas, 2020, Chip M1, 256 GB de SSD, 8 GB de RAM) - Plata</t>
+          <t>Notebook Education Maestro 11.6" gray 4GB de Ram - 64GB SSD - Intel Celeron</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1799,12 +1802,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14,999</t>
+          <t>2,889</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1816,25 +1819,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Notebook Laptop CP35 17.3" táctil plateado 8GB de Ram - 512GB SSD - AMD Ryzen 3</t>
+          <t>Laptop Hp 240 G8 Intel Core I3 8gb Ram 512gb Ssd 14 Color Negro</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$
-19,300
-,
-78</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10,808</t>
+          <t>5,991</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1846,22 +1846,23 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Laptop Hp 240 G8 Intel Core I3 8gb Ram 512gb Ssd 14 Color Negro</t>
+          <t>Laptop Hp 14-dq0526la Intel Celeron 4gb 128gb + Impresora</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+7,999</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5,991</t>
+          <t>5,099</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1873,23 +1874,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Laptop Lenovo Yoga Slim 7 Ultra 16gb 1tbssd</t>
+          <t>Notebook IdeaPad Ideapad 3 15.6" táctil azul 8GB de Ram - 512GB SSD - Intel Core i5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>$
-24,999</t>
+9,299</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16,249</t>
+          <t>8,834</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1901,22 +1902,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Laptop Hp 240 G9: Intel Core I5-1235u (12 Va Gen), 8gb Ram, Ssd De 512gb, Pantalla De 14 Led, Video Iris Xe Graphics, W11h, Teclado En Español.</t>
+          <t>Rtx4060 Laptop Gamer Ryzen 7 7735h Machenike L16pro 16'' 165Hz QHD DDR5 16g RAM 1t SSD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+34,870
+,
+74</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7,799</t>
+          <t>21,690</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1928,18 +1932,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Laptop HP 15-fd0000la 15.6'' Intel Core i3, 8 GB, 512 GB, 15.6, azul</t>
+          <t>I9-13900hx Portátil Gamer Machenike L16 pro Rtx4060 16'' QHD 2560x1600 240Hz Ddr5 16g RAM 1tb SSD Laptop</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>$
-10,299</t>
+36,809
+,
+08</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>7,945</t>
+          <t>28,342</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1956,23 +1962,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Laptop Thin &amp; Light Msi Modern 14 C12m 14 Ci3 8gb 256gb Ssd</t>
+          <t>Laptop Hp 240 G8 Intel Core I3-1115g4 16gb De Ram Ddr4 256gb Ssd Sólido, Windows 11 Home 64 Bits, Teclado En Español.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$
-14,999</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6,999</t>
+          <t>5,999</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1984,7 +1989,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Laptop Apple MacBook Air 13 M1 256gb 8gb Gris Espacial Esp Ñ</t>
+          <t>Notebook VICTUS 15 15-fa1093dx 15.6" azul 8GB de Ram - 512GB SSD - Intel Core i5</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1994,12 +1999,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12,999</t>
+          <t>14,499</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2011,17 +2016,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Notebook Laptop Geobook 2E 12.5" negro 4GB de Ram - 64GB SSD - Intel Celeron</t>
+          <t>Laptop Chuwi HeroBook Pro herobook plus space gray 15.6" Intel Celeron N4020 8GB de RAM 256GB SSD Intel UHD Graphics 600 1920x1080px Windows 11 Home PC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+9,497
+,
+87</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2,699</t>
+          <t>4,274</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
